--- a/natmiOut/OldD4/LR-pairs_lrc2p/Psap-Gpr37l1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Psap-Gpr37l1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>102.578566984033</v>
+        <v>107.565699</v>
       </c>
       <c r="H2">
-        <v>102.578566984033</v>
+        <v>322.697097</v>
       </c>
       <c r="I2">
-        <v>0.0279280114604062</v>
+        <v>0.02858134952685079</v>
       </c>
       <c r="J2">
-        <v>0.0279280114604062</v>
+        <v>0.02881178879290993</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.65887753064414</v>
+        <v>0.1139563333333333</v>
       </c>
       <c r="N2">
-        <v>1.65887753064414</v>
+        <v>0.341869</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.05897041328053401</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.08592218649695475</v>
       </c>
       <c r="Q2">
-        <v>170.1652798954872</v>
+        <v>12.257792650477</v>
       </c>
       <c r="R2">
-        <v>170.1652798954872</v>
+        <v>110.320133854293</v>
       </c>
       <c r="S2">
-        <v>0.0279280114604062</v>
+        <v>0.001685453993713786</v>
       </c>
       <c r="T2">
-        <v>0.0279280114604062</v>
+        <v>0.002475571889975278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -596,57 +596,57 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>163.281370938049</v>
+        <v>107.565699</v>
       </c>
       <c r="H3">
-        <v>163.281370938049</v>
+        <v>322.697097</v>
       </c>
       <c r="I3">
-        <v>0.0444549395931655</v>
+        <v>0.02858134952685079</v>
       </c>
       <c r="J3">
-        <v>0.0444549395931655</v>
+        <v>0.02881178879290993</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.65887753064414</v>
+        <v>1.818476</v>
       </c>
       <c r="N3">
-        <v>1.65887753064414</v>
+        <v>3.636952</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.941029586719466</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9140778135030453</v>
       </c>
       <c r="Q3">
-        <v>270.8637974219006</v>
+        <v>195.605642054724</v>
       </c>
       <c r="R3">
-        <v>270.8637974219006</v>
+        <v>1173.633852328344</v>
       </c>
       <c r="S3">
-        <v>0.0444549395931655</v>
+        <v>0.02689589553313701</v>
       </c>
       <c r="T3">
-        <v>0.0444549395931655</v>
+        <v>0.02633621690293465</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1790.6471251795</v>
+        <v>176.0123163333334</v>
       </c>
       <c r="H4">
-        <v>1790.6471251795</v>
+        <v>528.036949</v>
       </c>
       <c r="I4">
-        <v>0.4875210768087718</v>
+        <v>0.04676834326297298</v>
       </c>
       <c r="J4">
-        <v>0.4875210768087718</v>
+        <v>0.04714541652489843</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.65887753064414</v>
+        <v>0.1139563333333333</v>
       </c>
       <c r="N4">
-        <v>1.65887753064414</v>
+        <v>0.341869</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.05897041328053401</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.08592218649695475</v>
       </c>
       <c r="Q4">
-        <v>2970.464281272797</v>
+        <v>20.05771819085345</v>
       </c>
       <c r="R4">
-        <v>2970.464281272797</v>
+        <v>180.519463717681</v>
       </c>
       <c r="S4">
-        <v>0.4875210768087718</v>
+        <v>0.002757948530663395</v>
       </c>
       <c r="T4">
-        <v>0.4875210768087718</v>
+        <v>0.004050837271128936</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1528.19385765475</v>
+        <v>176.0123163333334</v>
       </c>
       <c r="H5">
-        <v>1528.19385765475</v>
+        <v>528.036949</v>
       </c>
       <c r="I5">
-        <v>0.4160656248682781</v>
+        <v>0.04676834326297298</v>
       </c>
       <c r="J5">
-        <v>0.4160656248682781</v>
+        <v>0.04714541652489843</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.65887753064414</v>
+        <v>1.818476</v>
       </c>
       <c r="N5">
-        <v>1.65887753064414</v>
+        <v>3.636952</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.941029586719466</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9140778135030453</v>
       </c>
       <c r="Q5">
-        <v>2535.086452931854</v>
+        <v>320.0741729565747</v>
       </c>
       <c r="R5">
-        <v>2535.086452931854</v>
+        <v>1920.445037739448</v>
       </c>
       <c r="S5">
-        <v>0.4160656248682781</v>
+        <v>0.04401039473230959</v>
       </c>
       <c r="T5">
-        <v>0.4160656248682781</v>
+        <v>0.0430945792537695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,365 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1855.177368</v>
+      </c>
+      <c r="H6">
+        <v>5565.532104</v>
+      </c>
+      <c r="I6">
+        <v>0.4929403451290834</v>
+      </c>
+      <c r="J6">
+        <v>0.4969147134924725</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.1139563333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.341869</v>
+      </c>
+      <c r="O6">
+        <v>0.05897041328053401</v>
+      </c>
+      <c r="P6">
+        <v>0.08592218649695475</v>
+      </c>
+      <c r="Q6">
+        <v>211.409210540264</v>
+      </c>
+      <c r="R6">
+        <v>1902.682894862376</v>
+      </c>
+      <c r="S6">
+        <v>0.02906889587491112</v>
+      </c>
+      <c r="T6">
+        <v>0.04269599868578106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>88.26258863851329</v>
-      </c>
-      <c r="H6">
-        <v>88.26258863851329</v>
-      </c>
-      <c r="I6">
-        <v>0.0240303472693785</v>
-      </c>
-      <c r="J6">
-        <v>0.0240303472693785</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.65887753064414</v>
-      </c>
-      <c r="N6">
-        <v>1.65887753064414</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>146.4168250889165</v>
-      </c>
-      <c r="R6">
-        <v>146.4168250889165</v>
-      </c>
-      <c r="S6">
-        <v>0.0240303472693785</v>
-      </c>
-      <c r="T6">
-        <v>0.0240303472693785</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1855.177368</v>
+      </c>
+      <c r="H7">
+        <v>5565.532104</v>
+      </c>
+      <c r="I7">
+        <v>0.4929403451290834</v>
+      </c>
+      <c r="J7">
+        <v>0.4969147134924725</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.818476</v>
+      </c>
+      <c r="N7">
+        <v>3.636952</v>
+      </c>
+      <c r="O7">
+        <v>0.941029586719466</v>
+      </c>
+      <c r="P7">
+        <v>0.9140778135030453</v>
+      </c>
+      <c r="Q7">
+        <v>3373.595519451168</v>
+      </c>
+      <c r="R7">
+        <v>20241.57311670701</v>
+      </c>
+      <c r="S7">
+        <v>0.4638714492541722</v>
+      </c>
+      <c r="T7">
+        <v>0.4542187148066915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1534.435017666667</v>
+      </c>
+      <c r="H8">
+        <v>4603.305053</v>
+      </c>
+      <c r="I8">
+        <v>0.4077156935146256</v>
+      </c>
+      <c r="J8">
+        <v>0.4110029317566841</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1139563333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.341869</v>
+      </c>
+      <c r="O8">
+        <v>0.05897041328053401</v>
+      </c>
+      <c r="P8">
+        <v>0.08592218649695475</v>
+      </c>
+      <c r="Q8">
+        <v>174.8585883515619</v>
+      </c>
+      <c r="R8">
+        <v>1573.727295164057</v>
+      </c>
+      <c r="S8">
+        <v>0.02404316294751701</v>
+      </c>
+      <c r="T8">
+        <v>0.03531427055319297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1534.435017666667</v>
+      </c>
+      <c r="H9">
+        <v>4603.305053</v>
+      </c>
+      <c r="I9">
+        <v>0.4077156935146256</v>
+      </c>
+      <c r="J9">
+        <v>0.4110029317566841</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.818476</v>
+      </c>
+      <c r="N9">
+        <v>3.636952</v>
+      </c>
+      <c r="O9">
+        <v>0.941029586719466</v>
+      </c>
+      <c r="P9">
+        <v>0.9140778135030453</v>
+      </c>
+      <c r="Q9">
+        <v>2790.333253186409</v>
+      </c>
+      <c r="R9">
+        <v>16741.99951911846</v>
+      </c>
+      <c r="S9">
+        <v>0.3836725305671086</v>
+      </c>
+      <c r="T9">
+        <v>0.3756886612034911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>90.30225350000001</v>
+      </c>
+      <c r="H10">
+        <v>180.604507</v>
+      </c>
+      <c r="I10">
+        <v>0.02399426856646732</v>
+      </c>
+      <c r="J10">
+        <v>0.0161251494330351</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1139563333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.341869</v>
+      </c>
+      <c r="O10">
+        <v>0.05897041328053401</v>
+      </c>
+      <c r="P10">
+        <v>0.08592218649695475</v>
+      </c>
+      <c r="Q10">
+        <v>10.29051370059717</v>
+      </c>
+      <c r="R10">
+        <v>61.743082203583</v>
+      </c>
+      <c r="S10">
+        <v>0.001414951933728704</v>
+      </c>
+      <c r="T10">
+        <v>0.001385508096876506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>90.30225350000001</v>
+      </c>
+      <c r="H11">
+        <v>180.604507</v>
+      </c>
+      <c r="I11">
+        <v>0.02399426856646732</v>
+      </c>
+      <c r="J11">
+        <v>0.0161251494330351</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.818476</v>
+      </c>
+      <c r="N11">
+        <v>3.636952</v>
+      </c>
+      <c r="O11">
+        <v>0.941029586719466</v>
+      </c>
+      <c r="P11">
+        <v>0.9140778135030453</v>
+      </c>
+      <c r="Q11">
+        <v>164.212480735666</v>
+      </c>
+      <c r="R11">
+        <v>656.8499229426641</v>
+      </c>
+      <c r="S11">
+        <v>0.02257931663273862</v>
+      </c>
+      <c r="T11">
+        <v>0.0147396413361586</v>
       </c>
     </row>
   </sheetData>
